--- a/input/Domains/Game/PurchaseTable.xlsx
+++ b/input/Domains/Game/PurchaseTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Purchase/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE2000D-B450-8648-B9E5-2E603582B7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0CEAC-2053-3248-966E-7417FAA43672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="500" windowWidth="37020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>internalProductId</t>
   </si>
   <si>
+    <t>rewardId</t>
+  </si>
+  <si>
     <t>kind</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>내부 상품 ID (정본)</t>
   </si>
   <si>
+    <t>Reward Key (REWARD.rewardId(pk))</t>
+  </si>
+  <si>
     <t>상품 타입 (Consumable/Rental/Subscription/SeasonPass)</t>
   </si>
   <si>
@@ -67,20 +73,16 @@
     <t>Google Play SKU</t>
   </si>
   <si>
+    <t>com.devian.framework.noads_month</t>
+  </si>
+  <si>
     <t>Rental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.devian.framework.noads_subscription</t>
   </si>
   <si>
     <t>Subscription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.devian.framework.noads_month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.devian.framework.noads_subscription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,10 +440,10 @@
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,69 +462,78 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/input/Domains/Game/PurchaseTable.xlsx
+++ b/input/Domains/Game/PurchaseTable.xlsx
@@ -1,107 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Game/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0CEAC-2053-3248-966E-7417FAA43672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1380" yWindow="500" windowWidth="37020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>internalProductId</t>
-  </si>
-  <si>
-    <t>rewardId</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
-    <t>storeSkuApple</t>
-  </si>
-  <si>
-    <t>storeSkuGoogle</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ProductKind</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>내부 상품 ID (정본)</t>
-  </si>
-  <si>
-    <t>Reward Key (REWARD.rewardId(pk))</t>
-  </si>
-  <si>
-    <t>상품 타입 (Consumable/Rental/Subscription/SeasonPass)</t>
-  </si>
-  <si>
-    <t>운영 활성 토글</t>
-  </si>
-  <si>
-    <t>Apple Store SKU</t>
-  </si>
-  <si>
-    <t>Google Play SKU</t>
-  </si>
-  <si>
-    <t>com.devian.framework.noads_month</t>
-  </si>
-  <si>
-    <t>Rental</t>
-  </si>
-  <si>
-    <t>com.devian.framework.noads_subscription</t>
-  </si>
-  <si>
-    <t>Subscription</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -219,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -287,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -422,122 +351,154 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>internalProductId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>rewardGroupId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>kind</v>
+      </c>
+      <c r="D1" t="str">
+        <v>title</v>
+      </c>
+      <c r="E1" t="str">
+        <v>isActive</v>
+      </c>
+      <c r="F1" t="str">
+        <v>storeSkuApple</v>
+      </c>
+      <c r="G1" t="str">
+        <v>storeSkuGoogle</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>string</v>
+      </c>
+      <c r="B2" t="str">
+        <v>string</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ProductKind</v>
+      </c>
+      <c r="D2" t="str">
+        <v>string</v>
+      </c>
+      <c r="E2" t="str">
+        <v>bool</v>
+      </c>
+      <c r="F2" t="str">
+        <v>string</v>
+      </c>
+      <c r="G2" t="str">
+        <v>string</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>pk</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>내부 상품 ID (정본)</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Reward Group Key (REWARD group key)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>상품 타입 (Consumable/Rental/Subscription/SeasonPass)</v>
+      </c>
+      <c r="E4" t="str">
+        <v>운영 활성 토글</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Apple Store SKU</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Google Play SKU</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>com.devian.framework.noads_month</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Rental</v>
+      </c>
+      <c r="G5" t="str">
+        <v>com.devian.framework.noads_month</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>com.devian.framework.noads_subscription</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Subscription</v>
+      </c>
+      <c r="G6" t="str">
+        <v>com.devian.framework.noads_subscription</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input/Domains/Game/PurchaseTable.xlsx
+++ b/input/Domains/Game/PurchaseTable.xlsx
@@ -1,46 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Game/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0464DD-DF30-C94C-9058-141398FBDC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>internalProductId</t>
+  </si>
+  <si>
+    <t>rewardGroupId</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>storeSkuApple</t>
+  </si>
+  <si>
+    <t>storeSkuGoogle</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ProductKind</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>내부 상품 ID (정본)</t>
+  </si>
+  <si>
+    <t>Reward Group Key (REWARD group key)</t>
+  </si>
+  <si>
+    <t>상품 타입 (Consumable/Rental/Subscription/SeasonPass)</t>
+  </si>
+  <si>
+    <t>운영 활성 토글</t>
+  </si>
+  <si>
+    <t>Apple Store SKU</t>
+  </si>
+  <si>
+    <t>Google Play SKU</t>
+  </si>
+  <si>
+    <t>com.devian.framework.noads_month</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>com.devian.framework.noads_subscription</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,13 +126,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,109 +465,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>internalProductId</v>
-      </c>
-      <c r="B1" t="str">
-        <v>rewardGroupId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>kind</v>
-      </c>
-      <c r="D1" t="str">
-        <v>title</v>
-      </c>
-      <c r="E1" t="str">
-        <v>isActive</v>
-      </c>
-      <c r="F1" t="str">
-        <v>storeSkuApple</v>
-      </c>
-      <c r="G1" t="str">
-        <v>storeSkuGoogle</v>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>string</v>
-      </c>
-      <c r="B2" t="str">
-        <v>string</v>
-      </c>
-      <c r="C2" t="str">
-        <v>ProductKind</v>
-      </c>
-      <c r="D2" t="str">
-        <v>string</v>
-      </c>
-      <c r="E2" t="str">
-        <v>bool</v>
-      </c>
-      <c r="F2" t="str">
-        <v>string</v>
-      </c>
-      <c r="G2" t="str">
-        <v>string</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>pk</v>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>내부 상품 ID (정본)</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Reward Group Key (REWARD group key)</v>
-      </c>
-      <c r="C4" t="str">
-        <v>상품 타입 (Consumable/Rental/Subscription/SeasonPass)</v>
-      </c>
-      <c r="E4" t="str">
-        <v>운영 활성 토글</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Apple Store SKU</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Google Play SKU</v>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>com.devian.framework.noads_month</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Rental</v>
-      </c>
-      <c r="G5" t="str">
-        <v>com.devian.framework.noads_month</v>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>com.devian.framework.noads_subscription</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Subscription</v>
-      </c>
-      <c r="G6" t="str">
-        <v>com.devian.framework.noads_subscription</v>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError sqref="A1:G4 A6:D6 A5:D5 F5:G5 F6:G6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/input/Domains/Game/PurchaseTable.xlsx
+++ b/input/Domains/Game/PurchaseTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0464DD-DF30-C94C-9058-141398FBDC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7C092-80BA-4147-8164-30EA32FBB970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="500" windowWidth="36980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>internalProductId</t>
   </si>
@@ -61,28 +61,50 @@
     <t>Reward Group Key (REWARD group key)</t>
   </si>
   <si>
+    <t>운영 활성 토글</t>
+  </si>
+  <si>
+    <t>Apple Store SKU</t>
+  </si>
+  <si>
+    <t>Google Play SKU</t>
+  </si>
+  <si>
+    <t>com.devian.framework.noads_month</t>
+  </si>
+  <si>
+    <t>com.devian.framework.noads_subscription</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>com.devian.framework.product.noads_month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.devian.framework.product.noads_subscription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>상품 타입 (Consumable/Rental/Subscription/SeasonPass)</t>
-  </si>
-  <si>
-    <t>운영 활성 토글</t>
-  </si>
-  <si>
-    <t>Apple Store SKU</t>
-  </si>
-  <si>
-    <t>Google Play SKU</t>
-  </si>
-  <si>
-    <t>com.devian.framework.noads_month</t>
-  </si>
-  <si>
-    <t>Rental</t>
-  </si>
-  <si>
-    <t>com.devian.framework.noads_subscription</t>
-  </si>
-  <si>
-    <t>Subscription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.devian.framework.product.chest_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.devian.framework.chest_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,13 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -533,51 +558,65 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G4 A6:D6 A5:D5 F5:G5 F6:G6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G3 A6:D6 A5:B5 F5 F6 D5 A4:B4 D4:G4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>